--- a/__RiKi_readme.xlsx
+++ b/__RiKi_readme.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\pyRiKi4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\pyRiKi2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C86457E-77B6-4C13-B994-35A3A95A8E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13076135-FB6B-4454-AED4-62AC346CCF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{647EE35F-F8A2-4FA1-9871-0A211B6EA593}"/>
   </bookViews>
@@ -1026,7 +1026,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1054,6 +1054,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1204,7 +1210,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1319,6 +1325,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1327,6 +1336,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000CC"/>
       <color rgb="FFD60093"/>
       <color rgb="FFFF66FF"/>
       <color rgb="FFFFCCFF"/>
@@ -16869,6 +16879,1005 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3379418" y="25939315"/>
+          <a:ext cx="1839760" cy="1539656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="10400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="UD デジタル 教科書体 NK-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="UD デジタル 教科書体 NK-B" panose="02020700000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>殊</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>81782</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4952999" cy="4493106"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="図 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{119322BB-6D91-4B1B-99C0-6BCC32337295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:duotone>
+            <a:schemeClr val="accent2">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:artisticLightScreen/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15919175" y="24266999"/>
+          <a:ext cx="4952999" cy="4493106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>184437</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4688417" cy="580448"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="正方形/長方形 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DF45C1F-998B-4344-A42A-62794FA5F8B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="314279" y="24609850"/>
+          <a:ext cx="4688417" cy="580448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+              <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            </a:rPr>
+            <a:t>力</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>239588</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>129890</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2770312" cy="849024"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="正方形/長方形 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{550255EA-15E5-4C4B-9BBE-A3781A432D5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="239588" y="24315107"/>
+          <a:ext cx="2770312" cy="849024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>RiKi</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            </a:effectLst>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>126710</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4688417" cy="580448"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="正方形/長方形 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3531028E-0F3F-44C1-9386-51298177708A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16042953" y="24552123"/>
+          <a:ext cx="4688417" cy="580448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+              <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            </a:rPr>
+            <a:t>力</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>239588</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>28869</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2770312" cy="849024"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="正方形/長方形 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{922618AC-26BD-434F-A54D-E337D39E31C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15968262" y="24214086"/>
+          <a:ext cx="2770312" cy="849024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>RiKi</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            </a:effectLst>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>96211</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4952999" cy="4493106"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="図 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F42C6C48-A80F-4784-BD03-42EC6F6D4FAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:duotone>
+            <a:schemeClr val="accent6">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:artisticLightScreen/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10676284" y="24281428"/>
+          <a:ext cx="4952999" cy="4493106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>112277</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4688417" cy="580448"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="正方形/長方形 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73A034AB-1F1F-4CD8-BB1C-C6FDD02465A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10800061" y="24537690"/>
+          <a:ext cx="4688417" cy="580448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+              <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            </a:rPr>
+            <a:t>力</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>239588</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>28868</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2770312" cy="849024"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="正方形/長方形 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14AD62E8-2723-4867-9699-8CD6623FFF4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10725371" y="24214085"/>
+          <a:ext cx="2770312" cy="849024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>RiKi</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            </a:effectLst>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>96211</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4952999" cy="4493106"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="107" name="図 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C242192-30C8-4331-8137-E7BB7450DA32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:duotone>
+            <a:schemeClr val="accent4">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:artisticLightScreen/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5433392" y="24281428"/>
+          <a:ext cx="4952999" cy="4493106"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>149265</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>236102</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3361275" cy="3660486"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="グラフィックス 107" descr="コール センター">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06088FEB-D52B-4B05-BDB6-61232C6D2EF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6319808" y="24901711"/>
+          <a:ext cx="3361275" cy="3660486"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>74083</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>170003</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4688417" cy="580448"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="正方形/長方形 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1B893D7-8F4B-4169-A9E4-5E19C1BE4A6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5557170" y="24595416"/>
+          <a:ext cx="4688417" cy="580448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+              <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            </a:rPr>
+            <a:t>力</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>239588</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>72162</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2770312" cy="849024"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="正方形/長方形 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71A2CD6D-DB51-4FD7-A8EF-60B7076C22E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5482479" y="24257379"/>
+          <a:ext cx="2770312" cy="849024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="6000" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+              </a:effectLst>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>RiKi</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="6000" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:reflection blurRad="63500" stA="50000" endA="300" endPos="25000" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            </a:effectLst>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>186176</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>1295</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5181019" cy="2859757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="正方形/長方形 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62F7FB07-ED71-4F3B-ABB4-0B0BA4406E8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5238567" y="26108078"/>
+          <a:ext cx="5181019" cy="2859757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="16600" b="1" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="HG丸ｺﾞｼｯｸM-PRO" panose="020F0600000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HG丸ｺﾞｼｯｸM-PRO" panose="020F0600000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>日報</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>182671</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>13048</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4971267" cy="1051727"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="正方形/長方形 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{967138C1-4AA6-47AF-ACED-8D93FABF8AE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="182671" y="27801200"/>
+          <a:ext cx="4971267" cy="1051727"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="4400" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Monjyu</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="4400" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>65241</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>221808</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3770856" cy="3692573"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="正方形/長方形 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A118B29-019B-4D2E-885A-0B485DE2238C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="65241" y="24407025"/>
+          <a:ext cx="3770856" cy="3692573"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="25900" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+              <a:ea typeface="白舟極太楷書教漢" panose="02000609000000000000" pitchFamily="1" charset="-128"/>
+            </a:rPr>
+            <a:t>文</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>378391</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>156575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1839760" cy="1539656"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="正方形/長方形 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C8274FA-D262-4F0F-B9C6-D95D1F305433}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3368413" y="26503553"/>
           <a:ext cx="1839760" cy="1539656"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -22373,10 +23382,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BD8D7F-E8F3-49D1-B811-542A9EEAF68E}">
-  <dimension ref="B2:AI122"/>
+  <dimension ref="A2:AI142"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A93" zoomScale="73" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F126" sqref="F126"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A119" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H141" sqref="B124:H141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -25556,7 +26565,7 @@
       <c r="AH112" s="1"/>
       <c r="AI112" s="1"/>
     </row>
-    <row r="113" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -25586,7 +26595,7 @@
       <c r="AH113" s="1"/>
       <c r="AI113" s="1"/>
     </row>
-    <row r="114" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -25616,7 +26625,7 @@
       <c r="AH114" s="1"/>
       <c r="AI114" s="1"/>
     </row>
-    <row r="115" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -25646,7 +26655,7 @@
       <c r="AH115" s="1"/>
       <c r="AI115" s="1"/>
     </row>
-    <row r="116" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -25676,7 +26685,7 @@
       <c r="AH116" s="1"/>
       <c r="AI116" s="1"/>
     </row>
-    <row r="117" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -25706,7 +26715,7 @@
       <c r="AH117" s="1"/>
       <c r="AI117" s="1"/>
     </row>
-    <row r="118" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -25736,7 +26745,7 @@
       <c r="AH118" s="1"/>
       <c r="AI118" s="1"/>
     </row>
-    <row r="119" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -25766,7 +26775,7 @@
       <c r="AH119" s="1"/>
       <c r="AI119" s="1"/>
     </row>
-    <row r="120" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -25796,7 +26805,7 @@
       <c r="AH120" s="1"/>
       <c r="AI120" s="1"/>
     </row>
-    <row r="121" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:35" x14ac:dyDescent="0.4">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -25826,7 +26835,7 @@
       <c r="AH121" s="1"/>
       <c r="AI121" s="1"/>
     </row>
-    <row r="122" spans="2:35" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:35" x14ac:dyDescent="0.4">
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
@@ -25834,6 +26843,618 @@
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
+    </row>
+    <row r="123" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A123" s="38"/>
+      <c r="B123" s="38"/>
+      <c r="C123" s="38"/>
+      <c r="D123" s="38"/>
+      <c r="E123" s="38"/>
+      <c r="F123" s="38"/>
+      <c r="G123" s="38"/>
+      <c r="H123" s="38"/>
+      <c r="I123" s="38"/>
+      <c r="AC123" s="1"/>
+      <c r="AD123" s="1"/>
+      <c r="AE123" s="1"/>
+      <c r="AF123" s="1"/>
+      <c r="AG123" s="1"/>
+      <c r="AH123" s="1"/>
+      <c r="AI123" s="1"/>
+    </row>
+    <row r="124" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A124" s="38"/>
+      <c r="B124" s="38"/>
+      <c r="C124" s="38"/>
+      <c r="D124" s="38"/>
+      <c r="E124" s="38"/>
+      <c r="F124" s="38"/>
+      <c r="G124" s="38"/>
+      <c r="H124" s="38"/>
+      <c r="I124" s="38"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+      <c r="O124" s="1"/>
+      <c r="P124" s="1"/>
+      <c r="Q124" s="1"/>
+      <c r="T124" s="1"/>
+      <c r="U124" s="1"/>
+      <c r="V124" s="1"/>
+      <c r="W124" s="1"/>
+      <c r="X124" s="1"/>
+      <c r="Y124" s="1"/>
+      <c r="Z124" s="1"/>
+      <c r="AC124" s="1"/>
+      <c r="AD124" s="1"/>
+      <c r="AE124" s="1"/>
+      <c r="AF124" s="1"/>
+      <c r="AG124" s="1"/>
+      <c r="AH124" s="1"/>
+      <c r="AI124" s="1"/>
+    </row>
+    <row r="125" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A125" s="38"/>
+      <c r="B125" s="38"/>
+      <c r="C125" s="38"/>
+      <c r="D125" s="38"/>
+      <c r="E125" s="38"/>
+      <c r="F125" s="38"/>
+      <c r="G125" s="38"/>
+      <c r="H125" s="38"/>
+      <c r="I125" s="38"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+      <c r="O125" s="1"/>
+      <c r="P125" s="1"/>
+      <c r="Q125" s="1"/>
+      <c r="T125" s="1"/>
+      <c r="U125" s="1"/>
+      <c r="V125" s="1"/>
+      <c r="W125" s="1"/>
+      <c r="X125" s="1"/>
+      <c r="Y125" s="1"/>
+      <c r="Z125" s="1"/>
+      <c r="AC125" s="1"/>
+      <c r="AD125" s="1"/>
+      <c r="AE125" s="1"/>
+      <c r="AF125" s="1"/>
+      <c r="AG125" s="1"/>
+      <c r="AH125" s="1"/>
+      <c r="AI125" s="1"/>
+    </row>
+    <row r="126" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A126" s="38"/>
+      <c r="B126" s="38"/>
+      <c r="C126" s="38"/>
+      <c r="D126" s="38"/>
+      <c r="E126" s="38"/>
+      <c r="F126" s="38"/>
+      <c r="G126" s="38"/>
+      <c r="H126" s="38"/>
+      <c r="I126" s="38"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="1"/>
+      <c r="Q126" s="1"/>
+      <c r="T126" s="1"/>
+      <c r="U126" s="1"/>
+      <c r="V126" s="1"/>
+      <c r="W126" s="1"/>
+      <c r="X126" s="1"/>
+      <c r="Y126" s="1"/>
+      <c r="Z126" s="1"/>
+      <c r="AC126" s="1"/>
+      <c r="AD126" s="1"/>
+      <c r="AE126" s="1"/>
+      <c r="AF126" s="1"/>
+      <c r="AG126" s="1"/>
+      <c r="AH126" s="1"/>
+      <c r="AI126" s="1"/>
+    </row>
+    <row r="127" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A127" s="38"/>
+      <c r="B127" s="38"/>
+      <c r="C127" s="38"/>
+      <c r="D127" s="38"/>
+      <c r="E127" s="38"/>
+      <c r="F127" s="38"/>
+      <c r="G127" s="38"/>
+      <c r="H127" s="38"/>
+      <c r="I127" s="38"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+      <c r="O127" s="1"/>
+      <c r="P127" s="1"/>
+      <c r="Q127" s="1"/>
+      <c r="T127" s="1"/>
+      <c r="U127" s="1"/>
+      <c r="V127" s="1"/>
+      <c r="W127" s="1"/>
+      <c r="X127" s="1"/>
+      <c r="Y127" s="1"/>
+      <c r="Z127" s="1"/>
+      <c r="AC127" s="1"/>
+      <c r="AD127" s="1"/>
+      <c r="AE127" s="1"/>
+      <c r="AF127" s="1"/>
+      <c r="AG127" s="1"/>
+      <c r="AH127" s="1"/>
+      <c r="AI127" s="1"/>
+    </row>
+    <row r="128" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A128" s="38"/>
+      <c r="B128" s="38"/>
+      <c r="C128" s="38"/>
+      <c r="D128" s="38"/>
+      <c r="E128" s="38"/>
+      <c r="F128" s="38"/>
+      <c r="G128" s="38"/>
+      <c r="H128" s="38"/>
+      <c r="I128" s="38"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+      <c r="O128" s="1"/>
+      <c r="P128" s="1"/>
+      <c r="Q128" s="1"/>
+      <c r="T128" s="1"/>
+      <c r="U128" s="1"/>
+      <c r="V128" s="1"/>
+      <c r="W128" s="1"/>
+      <c r="X128" s="1"/>
+      <c r="Y128" s="1"/>
+      <c r="Z128" s="1"/>
+      <c r="AC128" s="1"/>
+      <c r="AD128" s="1"/>
+      <c r="AE128" s="1"/>
+      <c r="AF128" s="1"/>
+      <c r="AG128" s="1"/>
+      <c r="AH128" s="1"/>
+      <c r="AI128" s="1"/>
+    </row>
+    <row r="129" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A129" s="38"/>
+      <c r="B129" s="38"/>
+      <c r="C129" s="38"/>
+      <c r="D129" s="38"/>
+      <c r="E129" s="38"/>
+      <c r="F129" s="38"/>
+      <c r="G129" s="38"/>
+      <c r="H129" s="38"/>
+      <c r="I129" s="38"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+      <c r="O129" s="1"/>
+      <c r="P129" s="1"/>
+      <c r="Q129" s="1"/>
+      <c r="T129" s="1"/>
+      <c r="U129" s="1"/>
+      <c r="V129" s="1"/>
+      <c r="W129" s="1"/>
+      <c r="X129" s="1"/>
+      <c r="Y129" s="1"/>
+      <c r="Z129" s="1"/>
+      <c r="AC129" s="1"/>
+      <c r="AD129" s="1"/>
+      <c r="AE129" s="1"/>
+      <c r="AF129" s="1"/>
+      <c r="AG129" s="1"/>
+      <c r="AH129" s="1"/>
+      <c r="AI129" s="1"/>
+    </row>
+    <row r="130" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A130" s="38"/>
+      <c r="B130" s="38"/>
+      <c r="C130" s="38"/>
+      <c r="D130" s="38"/>
+      <c r="E130" s="38"/>
+      <c r="F130" s="38"/>
+      <c r="G130" s="38"/>
+      <c r="H130" s="38"/>
+      <c r="I130" s="38"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+      <c r="O130" s="1"/>
+      <c r="P130" s="1"/>
+      <c r="Q130" s="1"/>
+      <c r="T130" s="1"/>
+      <c r="U130" s="1"/>
+      <c r="V130" s="1"/>
+      <c r="W130" s="1"/>
+      <c r="X130" s="1"/>
+      <c r="Y130" s="1"/>
+      <c r="Z130" s="1"/>
+      <c r="AC130" s="1"/>
+      <c r="AD130" s="1"/>
+      <c r="AE130" s="1"/>
+      <c r="AF130" s="1"/>
+      <c r="AG130" s="1"/>
+      <c r="AH130" s="1"/>
+      <c r="AI130" s="1"/>
+    </row>
+    <row r="131" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A131" s="38"/>
+      <c r="B131" s="38"/>
+      <c r="C131" s="38"/>
+      <c r="D131" s="38"/>
+      <c r="E131" s="38"/>
+      <c r="F131" s="38"/>
+      <c r="G131" s="38"/>
+      <c r="H131" s="38"/>
+      <c r="I131" s="38"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+      <c r="O131" s="1"/>
+      <c r="P131" s="1"/>
+      <c r="Q131" s="1"/>
+      <c r="T131" s="1"/>
+      <c r="U131" s="1"/>
+      <c r="V131" s="1"/>
+      <c r="W131" s="1"/>
+      <c r="X131" s="1"/>
+      <c r="Y131" s="1"/>
+      <c r="Z131" s="1"/>
+      <c r="AC131" s="1"/>
+      <c r="AD131" s="1"/>
+      <c r="AE131" s="1"/>
+      <c r="AF131" s="1"/>
+      <c r="AG131" s="1"/>
+      <c r="AH131" s="1"/>
+      <c r="AI131" s="1"/>
+    </row>
+    <row r="132" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A132" s="38"/>
+      <c r="B132" s="38"/>
+      <c r="C132" s="38"/>
+      <c r="D132" s="38"/>
+      <c r="E132" s="38"/>
+      <c r="F132" s="38"/>
+      <c r="G132" s="38"/>
+      <c r="H132" s="38"/>
+      <c r="I132" s="38"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+      <c r="O132" s="1"/>
+      <c r="P132" s="1"/>
+      <c r="Q132" s="1"/>
+      <c r="T132" s="1"/>
+      <c r="U132" s="1"/>
+      <c r="V132" s="1"/>
+      <c r="W132" s="1"/>
+      <c r="X132" s="1"/>
+      <c r="Y132" s="1"/>
+      <c r="Z132" s="1"/>
+      <c r="AC132" s="1"/>
+      <c r="AD132" s="1"/>
+      <c r="AE132" s="1"/>
+      <c r="AF132" s="1"/>
+      <c r="AG132" s="1"/>
+      <c r="AH132" s="1"/>
+      <c r="AI132" s="1"/>
+    </row>
+    <row r="133" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A133" s="38"/>
+      <c r="B133" s="38"/>
+      <c r="C133" s="38"/>
+      <c r="D133" s="38"/>
+      <c r="E133" s="38"/>
+      <c r="F133" s="38"/>
+      <c r="G133" s="38"/>
+      <c r="H133" s="38"/>
+      <c r="I133" s="38"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+      <c r="O133" s="1"/>
+      <c r="P133" s="1"/>
+      <c r="Q133" s="1"/>
+      <c r="T133" s="1"/>
+      <c r="U133" s="1"/>
+      <c r="V133" s="1"/>
+      <c r="W133" s="1"/>
+      <c r="X133" s="1"/>
+      <c r="Y133" s="1"/>
+      <c r="Z133" s="1"/>
+      <c r="AC133" s="1"/>
+      <c r="AD133" s="1"/>
+      <c r="AE133" s="1"/>
+      <c r="AF133" s="1"/>
+      <c r="AG133" s="1"/>
+      <c r="AH133" s="1"/>
+      <c r="AI133" s="1"/>
+    </row>
+    <row r="134" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A134" s="38"/>
+      <c r="B134" s="38"/>
+      <c r="C134" s="38"/>
+      <c r="D134" s="38"/>
+      <c r="E134" s="38"/>
+      <c r="F134" s="38"/>
+      <c r="G134" s="38"/>
+      <c r="H134" s="38"/>
+      <c r="I134" s="38"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+      <c r="O134" s="1"/>
+      <c r="P134" s="1"/>
+      <c r="Q134" s="1"/>
+      <c r="T134" s="1"/>
+      <c r="U134" s="1"/>
+      <c r="V134" s="1"/>
+      <c r="W134" s="1"/>
+      <c r="X134" s="1"/>
+      <c r="Y134" s="1"/>
+      <c r="Z134" s="1"/>
+      <c r="AC134" s="1"/>
+      <c r="AD134" s="1"/>
+      <c r="AE134" s="1"/>
+      <c r="AF134" s="1"/>
+      <c r="AG134" s="1"/>
+      <c r="AH134" s="1"/>
+      <c r="AI134" s="1"/>
+    </row>
+    <row r="135" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A135" s="38"/>
+      <c r="B135" s="38"/>
+      <c r="C135" s="38"/>
+      <c r="D135" s="38"/>
+      <c r="E135" s="38"/>
+      <c r="F135" s="38"/>
+      <c r="G135" s="38"/>
+      <c r="H135" s="38"/>
+      <c r="I135" s="38"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
+      <c r="O135" s="1"/>
+      <c r="P135" s="1"/>
+      <c r="Q135" s="1"/>
+      <c r="T135" s="1"/>
+      <c r="U135" s="1"/>
+      <c r="V135" s="1"/>
+      <c r="W135" s="1"/>
+      <c r="X135" s="1"/>
+      <c r="Y135" s="1"/>
+      <c r="Z135" s="1"/>
+      <c r="AC135" s="1"/>
+      <c r="AD135" s="1"/>
+      <c r="AE135" s="1"/>
+      <c r="AF135" s="1"/>
+      <c r="AG135" s="1"/>
+      <c r="AH135" s="1"/>
+      <c r="AI135" s="1"/>
+    </row>
+    <row r="136" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A136" s="38"/>
+      <c r="B136" s="38"/>
+      <c r="C136" s="38"/>
+      <c r="D136" s="38"/>
+      <c r="E136" s="38"/>
+      <c r="F136" s="38"/>
+      <c r="G136" s="38"/>
+      <c r="H136" s="38"/>
+      <c r="I136" s="38"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+      <c r="O136" s="1"/>
+      <c r="P136" s="1"/>
+      <c r="Q136" s="1"/>
+      <c r="T136" s="1"/>
+      <c r="U136" s="1"/>
+      <c r="V136" s="1"/>
+      <c r="W136" s="1"/>
+      <c r="X136" s="1"/>
+      <c r="Y136" s="1"/>
+      <c r="Z136" s="1"/>
+      <c r="AC136" s="1"/>
+      <c r="AD136" s="1"/>
+      <c r="AE136" s="1"/>
+      <c r="AF136" s="1"/>
+      <c r="AG136" s="1"/>
+      <c r="AH136" s="1"/>
+      <c r="AI136" s="1"/>
+    </row>
+    <row r="137" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A137" s="38"/>
+      <c r="B137" s="38"/>
+      <c r="C137" s="38"/>
+      <c r="D137" s="38"/>
+      <c r="E137" s="38"/>
+      <c r="F137" s="38"/>
+      <c r="G137" s="38"/>
+      <c r="H137" s="38"/>
+      <c r="I137" s="38"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+      <c r="O137" s="1"/>
+      <c r="P137" s="1"/>
+      <c r="Q137" s="1"/>
+      <c r="T137" s="1"/>
+      <c r="U137" s="1"/>
+      <c r="V137" s="1"/>
+      <c r="W137" s="1"/>
+      <c r="X137" s="1"/>
+      <c r="Y137" s="1"/>
+      <c r="Z137" s="1"/>
+      <c r="AC137" s="1"/>
+      <c r="AD137" s="1"/>
+      <c r="AE137" s="1"/>
+      <c r="AF137" s="1"/>
+      <c r="AG137" s="1"/>
+      <c r="AH137" s="1"/>
+      <c r="AI137" s="1"/>
+    </row>
+    <row r="138" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A138" s="38"/>
+      <c r="B138" s="38"/>
+      <c r="C138" s="38"/>
+      <c r="D138" s="38"/>
+      <c r="E138" s="38"/>
+      <c r="F138" s="38"/>
+      <c r="G138" s="38"/>
+      <c r="H138" s="38"/>
+      <c r="I138" s="38"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+      <c r="O138" s="1"/>
+      <c r="P138" s="1"/>
+      <c r="Q138" s="1"/>
+      <c r="T138" s="1"/>
+      <c r="U138" s="1"/>
+      <c r="V138" s="1"/>
+      <c r="W138" s="1"/>
+      <c r="X138" s="1"/>
+      <c r="Y138" s="1"/>
+      <c r="Z138" s="1"/>
+      <c r="AC138" s="1"/>
+      <c r="AD138" s="1"/>
+      <c r="AE138" s="1"/>
+      <c r="AF138" s="1"/>
+      <c r="AG138" s="1"/>
+      <c r="AH138" s="1"/>
+      <c r="AI138" s="1"/>
+    </row>
+    <row r="139" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A139" s="38"/>
+      <c r="B139" s="38"/>
+      <c r="C139" s="38"/>
+      <c r="D139" s="38"/>
+      <c r="E139" s="38"/>
+      <c r="F139" s="38"/>
+      <c r="G139" s="38"/>
+      <c r="H139" s="38"/>
+      <c r="I139" s="38"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+      <c r="N139" s="1"/>
+      <c r="O139" s="1"/>
+      <c r="P139" s="1"/>
+      <c r="Q139" s="1"/>
+      <c r="T139" s="1"/>
+      <c r="U139" s="1"/>
+      <c r="V139" s="1"/>
+      <c r="W139" s="1"/>
+      <c r="X139" s="1"/>
+      <c r="Y139" s="1"/>
+      <c r="Z139" s="1"/>
+      <c r="AC139" s="1"/>
+      <c r="AD139" s="1"/>
+      <c r="AE139" s="1"/>
+      <c r="AF139" s="1"/>
+      <c r="AG139" s="1"/>
+      <c r="AH139" s="1"/>
+      <c r="AI139" s="1"/>
+    </row>
+    <row r="140" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A140" s="38"/>
+      <c r="B140" s="38"/>
+      <c r="C140" s="38"/>
+      <c r="D140" s="38"/>
+      <c r="E140" s="38"/>
+      <c r="F140" s="38"/>
+      <c r="G140" s="38"/>
+      <c r="H140" s="38"/>
+      <c r="I140" s="38"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+      <c r="O140" s="1"/>
+      <c r="P140" s="1"/>
+      <c r="Q140" s="1"/>
+      <c r="T140" s="1"/>
+      <c r="U140" s="1"/>
+      <c r="V140" s="1"/>
+      <c r="W140" s="1"/>
+      <c r="X140" s="1"/>
+      <c r="Y140" s="1"/>
+      <c r="Z140" s="1"/>
+      <c r="AC140" s="1"/>
+      <c r="AD140" s="1"/>
+      <c r="AE140" s="1"/>
+      <c r="AF140" s="1"/>
+      <c r="AG140" s="1"/>
+      <c r="AH140" s="1"/>
+      <c r="AI140" s="1"/>
+    </row>
+    <row r="141" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A141" s="38"/>
+      <c r="B141" s="38"/>
+      <c r="C141" s="38"/>
+      <c r="D141" s="38"/>
+      <c r="E141" s="38"/>
+      <c r="F141" s="38"/>
+      <c r="G141" s="38"/>
+      <c r="H141" s="38"/>
+      <c r="I141" s="38"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+      <c r="O141" s="1"/>
+      <c r="P141" s="1"/>
+      <c r="Q141" s="1"/>
+      <c r="T141" s="1"/>
+      <c r="U141" s="1"/>
+      <c r="V141" s="1"/>
+      <c r="W141" s="1"/>
+      <c r="X141" s="1"/>
+      <c r="Y141" s="1"/>
+      <c r="Z141" s="1"/>
+      <c r="AC141" s="1"/>
+      <c r="AD141" s="1"/>
+      <c r="AE141" s="1"/>
+      <c r="AF141" s="1"/>
+      <c r="AG141" s="1"/>
+      <c r="AH141" s="1"/>
+      <c r="AI141" s="1"/>
+    </row>
+    <row r="142" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A142" s="38"/>
+      <c r="B142" s="38"/>
+      <c r="C142" s="38"/>
+      <c r="D142" s="38"/>
+      <c r="E142" s="38"/>
+      <c r="F142" s="38"/>
+      <c r="G142" s="38"/>
+      <c r="H142" s="38"/>
+      <c r="I142" s="38"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+      <c r="O142" s="1"/>
+      <c r="P142" s="1"/>
+      <c r="Q142" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -28600,19 +30221,63 @@
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="T18:U18"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="T15:U15"/>
     <mergeCell ref="C10:D10"/>
@@ -28627,63 +30292,19 @@
     <mergeCell ref="T13:U13"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="T14:U14"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="T8:U8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29382,6 +31003,25 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B6:C6"/>
@@ -29394,25 +31034,6 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
